--- a/Project 2/Data.xlsx
+++ b/Project 2/Data.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="RTT vs Hops" sheetId="6" r:id="rId2"/>
+    <sheet name="RTT vs Distance" sheetId="4" r:id="rId3"/>
+    <sheet name="Hops vs Distance" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Host</t>
   </si>
   <si>
     <t>Hops</t>
-  </si>
-  <si>
-    <t>RTT (microseconds)</t>
   </si>
   <si>
     <t>kohls.com</t>
@@ -74,7 +74,22 @@
     <t>dropbox.com</t>
   </si>
   <si>
-    <t>Correlation Coefficent:</t>
+    <t>Distance(km)</t>
+  </si>
+  <si>
+    <t>Correlation Coefficents</t>
+  </si>
+  <si>
+    <t>Hops and Distance</t>
+  </si>
+  <si>
+    <t>RTT and Distance</t>
+  </si>
+  <si>
+    <t>RTT (milliseconds)</t>
+  </si>
+  <si>
+    <t>RTT and Hops</t>
   </si>
 </sst>
 </file>
@@ -235,97 +250,52 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
+          <c:trendline>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Data!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18</c:v>
@@ -334,58 +304,58 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Data!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>116</c:v>
+                  <c:v>0.247002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>13.886929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>14.21308582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>18.402100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>18.975019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>125</c:v>
+                  <c:v>22.560120000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>34.421921859999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>41.708945999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>66.869973999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>70.734024000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76</c:v>
+                  <c:v>88.037968000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86</c:v>
+                  <c:v>99.351168000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122</c:v>
+                  <c:v>106.02116599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,19 +363,18 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339500864"/>
-        <c:axId val="125458024"/>
+        <c:axId val="109767312"/>
+        <c:axId val="109766528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339500864"/>
+        <c:axId val="109767312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,16 +492,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125458024"/>
+        <c:crossAx val="109766528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125458024"/>
+        <c:axId val="109766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -648,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339500864"/>
+        <c:crossAx val="109767312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -689,11 +656,1016 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTT vs Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.247002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.886929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.21308582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.402100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.975019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.560120000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.421921859999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.708945999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.869973999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.734024000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88.037968000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.351168000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.02116599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109761824"/>
+        <c:axId val="109762216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109761824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance (km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109762216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109762216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (microseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109761824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hops</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Distance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3484</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="109761040"/>
+        <c:axId val="109763784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="109761040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (km)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109763784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109763784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Hops</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="109761040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
 </file>
 
@@ -737,6 +1709,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1253,25 +2305,1083 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69532</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1284,7 +3394,61 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1551,184 +3715,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.247002</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>13.886929</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>14.21308582</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18.402100000000001</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>116</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
+      <c r="D5">
+        <v>3484</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-      <c r="C3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>18.975019</v>
+      </c>
+      <c r="C6">
         <v>14</v>
       </c>
+      <c r="D6">
+        <v>1370</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>105</v>
-      </c>
-      <c r="C4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>22.560120000000001</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>34.421921859999998</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>874</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>82</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>95</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>125</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>103</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>41.708945999999997</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3484</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>66.869973999999999</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>103</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
       <c r="B11">
-        <v>109</v>
+        <v>70.734024000000005</v>
       </c>
       <c r="C11">
         <v>18</v>
       </c>
+      <c r="D11">
+        <v>3315</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>88.037968000000006</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
+      <c r="D12">
+        <v>3478</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>99.351168000000001</v>
       </c>
       <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>106.02116599999999</v>
+      </c>
+      <c r="C14">
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>1370</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>122</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <f>CORREL(B2:B14, C2:C14)</f>
-        <v>-7.4877853553297721E-2</v>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f>CORREL(C2:C14,D2:D14)</f>
+        <v>0.26792593930398589</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f>CORREL(B2:B14,D2:D14)</f>
+        <v>0.29796906035444187</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f>CORREL(B2:B14,C2:C14)</f>
+        <v>0.57185651295369244</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D15">
+    <sortCondition ref="B2:B15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>